--- a/va_facility_data_2025-02-20/W.G. (Bill) Hefner Salisbury Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''W.G.%20%28Bill%29%20Hefner%20Salisbury%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/W.G. (Bill) Hefner Salisbury Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''W.G.%20%28Bill%29%20Hefner%20Salisbury%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R20cd0d869d804b52901e12a2e2c6d888"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R99477c80f0c84f0b8b6510f1268c959d"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc22aeab11adc407eb1cea4d5aa034c26"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R0425d970a174484ea374cfbb72b23690"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R84deb0d619d0458eb93e12927955268d"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R97610d2c95bb4594a08cbd5e967171d9"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R9ddb703ef5304b58bd083a171a1780f3"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R5a09a4191f8d4e56aa6112fa8b0a6cea"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4a5c9b008f5343f68c4446345922f9d4"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R9a8e0a3981034b63b7904eb508e169c0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf01ec781ab134dc5a1d2ffe0eabc396e"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9c233df1539e4d82ad31c79f1728e823"/>
   </x:sheets>
 </x:workbook>
 </file>
